--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732401.232277491</v>
+        <v>2836580.866728562</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.22593971364982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>15.03347606442247</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.90320919298829</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5640790923923</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>147.6364325960786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>243.5879073424593</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.32239466140644</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>163.9628781690733</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>299.4782125119771</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>19.89986219706466</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>43.48965213380038</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.6164309267676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.5006452705931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189057</v>
+        <v>65.99480013030499</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2132,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>106.5290632934498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272495</v>
       </c>
       <c r="C25" t="n">
-        <v>82.47290449300773</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.3135037226517</v>
+        <v>113.7076464771387</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>19.72264368952145</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.168913835719746</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6229551553992</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>212.89882061057</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4364,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995009</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C4" t="n">
-        <v>294.723245171594</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D4" t="n">
-        <v>294.723245171594</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>294.723245171594</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>294.723245171594</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>127.020408546313</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971288</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732708</v>
+        <v>957.646215064373</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297407</v>
+        <v>957.646215064373</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.278680221567</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.0764108006842</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C7" t="n">
-        <v>392.1402278727774</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>242.0235884604416</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>94.11049487804851</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744541</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.724875630924</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540143</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933392</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335148</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455405</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544676</v>
+        <v>2510.786507531615</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.2355044562296</v>
+        <v>988.6526744931904</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>819.7164915652835</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>669.5998521529477</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>521.6867585705546</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4999,13 +5001,13 @@
         <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.8839692864693</v>
+        <v>1170.30113932343</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,28 +5056,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5276,13 +5278,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687975</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.6374272687975</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5546,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5823,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
@@ -5838,16 +5840,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935558</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656489</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>516.5309703533131</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>368.61787677092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y28" t="n">
-        <v>779.6143379232838</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6464,49 +6466,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="32">
@@ -6689,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6785,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>337.5370598705081</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>696.7084350851671</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7828,28 +7830,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196493</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.21554925516972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610407</v>
+        <v>79.42624789262625</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>50.29392045468776</v>
       </c>
       <c r="C25" t="n">
-        <v>84.7739166056201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.27114962944304</v>
+        <v>104.8770068749561</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>45.44677382459308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>145.8014946027474</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>138.2650488108494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8110074911699314</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813243</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813252</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813249</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26439,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="K4" t="n">
-        <v>10557.08828678127</v>
-      </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090842</v>
+        <v>-849063.3492090848</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.3965185076</v>
+        <v>479681.3965185086</v>
       </c>
       <c r="D6" t="n">
         <v>479681.3965185077</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262116</v>
+        <v>228803.8648262112</v>
       </c>
       <c r="F6" t="n">
+        <v>554216.3266335666</v>
+      </c>
+      <c r="G6" t="n">
+        <v>554216.3266335663</v>
+      </c>
+      <c r="H6" t="n">
         <v>554216.3266335665</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>554216.3266335664</v>
+      </c>
+      <c r="J6" t="n">
+        <v>336685.1242362892</v>
+      </c>
+      <c r="K6" t="n">
+        <v>554216.3266335668</v>
+      </c>
+      <c r="L6" t="n">
         <v>554216.3266335669</v>
       </c>
-      <c r="H6" t="n">
-        <v>554216.3266335666</v>
-      </c>
-      <c r="I6" t="n">
-        <v>554216.3266335669</v>
-      </c>
-      <c r="J6" t="n">
-        <v>336685.1242362889</v>
-      </c>
-      <c r="K6" t="n">
-        <v>554216.3266335665</v>
-      </c>
-      <c r="L6" t="n">
-        <v>554216.3266335663</v>
-      </c>
       <c r="M6" t="n">
-        <v>469161.2986980546</v>
+        <v>469161.2986980547</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335666</v>
+        <v>554216.3266335668</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335665</v>
+        <v>554216.3266335668</v>
       </c>
       <c r="P6" t="n">
         <v>554216.3266335666</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.5079019498307</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>312.7187824057124</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>84.8518057213325</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>16.1455762966448</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>234.2939374761832</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>126.1431933360097</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>53.73645647354654</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>118.0986533615248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.7709634944073</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>111.4435131414763</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>147.3469589015632</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>101.9313958891309</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32719,13 +32721,13 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>677.7372574190229</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>608.2694430035897</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,13 +36369,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>535.1410129745784</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2836580.866728562</v>
+        <v>2832568.25671457</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8783090.983888142</v>
+        <v>8783090.98388814</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.03347606442247</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>129.4714269367835</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>209.5640790923923</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>45.62768516800267</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>243.5879073424593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951627</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.9628781690733</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>288.2822493900566</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.48965213380038</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>77.31354443380498</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>196.7867454260345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>65.99480013030499</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.5380597272495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.7076464771387</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673027</v>
+        <v>151.5133592021556</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.72264368952145</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2740.621599436322</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2740.621599436322</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.155841175242</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.016509199431</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>2343.707767180343</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>2174.771584252436</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>2024.6549448401</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>1876.741851257707</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>3263.555532089091</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>3263.555532089091</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036487</v>
+        <v>2974.13836205213</v>
       </c>
       <c r="X4" t="n">
-        <v>957.646215064373</v>
+        <v>2746.148811154113</v>
       </c>
       <c r="Y4" t="n">
-        <v>957.646215064373</v>
+        <v>2525.356232010583</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>172.575132933288</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>165.6296321840845</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>154.5975860694851</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4573,10 +4573,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>2079.457471651794</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.318139675982</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.169050396912</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>768.6922125248784</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>357.7063077352709</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2510.786507531615</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>988.6526744931904</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>819.7164915652835</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>669.5998521529477</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>521.6867585705546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.09371846696</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1391.09371846696</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1170.30113932343</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,31 +5053,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5181,22 +5181,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5278,28 +5278,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2248.188593250933</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1959.113366595131</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>849.5024441107445</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>699.3858046984087</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>551.4727111160156</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>128.3857541101527</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2875.571313159223</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231862</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303955</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062102</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237133</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351768</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145881</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.96144010892</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210903</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.3929232910542</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>782.4567403631473</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>632.3401009508116</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>484.4270073684185</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>337.5370598705081</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121294</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>710.248605371872</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>20.61870490125375</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>79.42624789262625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.29392045468776</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.8770068749561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194143</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090848</v>
+        <v>-849063.3492090842</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.3965185086</v>
+        <v>479681.396518508</v>
       </c>
       <c r="D6" t="n">
-        <v>479681.3965185077</v>
+        <v>479681.3965185075</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262112</v>
+        <v>228456.4855718547</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335663</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="J6" t="n">
-        <v>336685.1242362892</v>
+        <v>336337.7449819322</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335668</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="L6" t="n">
-        <v>554216.3266335669</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="M6" t="n">
-        <v>469161.2986980547</v>
+        <v>468813.9194436976</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335668</v>
+        <v>553868.9473792095</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335668</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792097</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,25 +26983,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>312.7187824057124</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>256.7665117192701</v>
       </c>
     </row>
     <row r="3">
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>224.7820515807339</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.1455762966448</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>248.9800792193178</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>126.1431933360097</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>53.73645647354654</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.3204533960966</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.7709634944073</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>122.6394762633969</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>101.9313958891309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.61860823624234</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32721,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4622569139909</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>608.2694430035897</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>322.6208179396319</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>108.4053175402703</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2832568.25671457</v>
+        <v>2834328.787017355</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8783090.98388814</v>
+        <v>8783090.983888142</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.64559995940405</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.4714269367835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>85.47654389282617</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>45.62768516800267</v>
+        <v>23.34416082770861</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>72.89138480951627</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>288.2822493900566</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.5388824951711</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.90320919298874</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>126.3436347319671</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>34.22340015155905</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>15.9345014072213</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>200.057423711867</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U31" t="n">
-        <v>151.5133592021556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866151</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,7 +4412,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.707767180343</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252436</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.6549448401</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257707</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3263.555532089091</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>3263.555532089091</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>2974.13836205213</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>2746.148811154113</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>2525.356232010583</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591601078694</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C5" t="n">
-        <v>916.6290841382827</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D5" t="n">
-        <v>558.3633855315322</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E5" t="n">
-        <v>172.575132933288</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="F5" t="n">
-        <v>165.6296321840845</v>
+        <v>547.1614257797471</v>
       </c>
       <c r="G5" t="n">
-        <v>154.5975860694851</v>
+        <v>132.0889756247436</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118628</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142816</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1853.666886664739</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1598.982398458852</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1309.565228421891</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1081.575677523874</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.7830983803434</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670285</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123123</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248784</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352709</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>127.0204085463135</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5123,16 +5123,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776659</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>295.5818533952728</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>128.3857541101527</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6448,10 +6448,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6645,22 +6645,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U31" t="n">
-        <v>1824.417283336614</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
         <v>1280.315625093766</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6785,13 +6785,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7402,34 +7402,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460207</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>86.46557462472404</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U31" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
@@ -26343,16 +26343,16 @@
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.944744255</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813248</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813254</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813251</v>
-      </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26441,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090842</v>
+        <v>-849063.3492090849</v>
       </c>
       <c r="C6" t="n">
+        <v>479681.3965185082</v>
+      </c>
+      <c r="D6" t="n">
         <v>479681.396518508</v>
       </c>
-      <c r="D6" t="n">
-        <v>479681.3965185075</v>
-      </c>
       <c r="E6" t="n">
-        <v>228456.4855718547</v>
+        <v>228769.1269007756</v>
       </c>
       <c r="F6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081308</v>
       </c>
       <c r="G6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081312</v>
       </c>
       <c r="H6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="I6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.588708131</v>
       </c>
       <c r="J6" t="n">
-        <v>336337.7449819322</v>
+        <v>336650.3863108534</v>
       </c>
       <c r="K6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="L6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.588708131</v>
       </c>
       <c r="M6" t="n">
-        <v>468813.9194436976</v>
+        <v>469126.5607726189</v>
       </c>
       <c r="N6" t="n">
-        <v>553868.9473792095</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="O6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.588708131</v>
       </c>
       <c r="P6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081311</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>340.0882417040765</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.7665117192701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.87587651701192</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>224.7820515807339</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>248.9800792193178</v>
+        <v>271.2636035596119</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>19.03887597603348</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>213.3204533960966</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6394762633969</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0688818921494</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133204</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.61860823624234</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
